--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\repos\rufus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\repos\rufus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B79C163-0B28-4735-8A19-C0BFC4770D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3406C5-A681-4851-B317-D4FF0FC19034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Zqy20040321!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN FlyingBird飞鸟云
+https://la02.fbwebla.cc/auth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13182607929@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +108,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,15 +134,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,16 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -456,8 +479,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{EADE7923-90C5-4E34-9670-7AA511279EE0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>